--- a/server/DB.xlsx
+++ b/server/DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CRMDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CRMDev\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A8FDFB-6A86-4EF8-8BD9-946D94ECD203}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB6463-6535-432D-8FD4-3CDCCC9B9E1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,15 +667,23 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I15" sqref="A2:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="32.25" customWidth="1"/>
+    <col min="9" max="9" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -733,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -762,7 +770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -791,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -820,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -849,7 +857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -878,7 +886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -907,7 +915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -936,7 +944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -965,7 +973,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
